--- a/practica1/salida.xlsx
+++ b/practica1/salida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imarc\Documents\GitHub\arquitecturaDeComputadores\practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68F336E-87C3-4A66-AED9-C7EAC4DF1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E0D0F-A4BF-4CA8-BA5B-832BB8B762CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="767" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="767" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="10" sheetId="13" r:id="rId10"/>
     <sheet name="Resultados" sheetId="1" r:id="rId11"/>
     <sheet name="gráficos" sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja4" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'1'!$A$1:$F$36</definedName>
@@ -847,15 +848,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>gráficos!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media Geométrica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>D=1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2353,6 +2346,425 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="85000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Media geométrica de los ciclos/acceso para D = 256</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="85000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="85000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gráficos!$D$31:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gráficos!$E$31:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1870352.7269196371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2109223.8513669176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2362764.1584918741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3963262.8512683492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4738973.0146422461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4810751.7743584812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4775676.4871119745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E0A-4E1B-9C72-2EE509848F62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="845340703"/>
+        <c:axId val="1256017791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="845340703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256017791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1256017791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845340703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2474,6 +2886,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4665,20 +5117,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4806,6 +5796,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFFBF57-7D12-E72E-2B85-8BB4CC35946B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7928,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2EA1E5-563A-4C37-BF32-AF2E86FDD1EB}">
   <dimension ref="C2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8340,6 +9366,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56644DC9-C389-4C72-AB66-97BA63810033}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
